--- a/arquivos/id_provedores.xlsx
+++ b/arquivos/id_provedores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F257064\Documents\Codes\atualizacao nfv automatico\NEW_NFV\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0C08B2-8163-4939-BADD-E5FF1001A63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB1B115-33A5-4460-8317-318929305E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$B$1810</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$B$1815</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$C$1826</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -5743,8 +5743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B266" sqref="B266"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20273,7 +20273,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1810" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A2:B1815">
     <cfRule type="duplicateValues" dxfId="0" priority="136"/>
   </conditionalFormatting>
